--- a/biology/Médecine/Triangle_clavi-pectoral/Triangle_clavi-pectoral.xlsx
+++ b/biology/Médecine/Triangle_clavi-pectoral/Triangle_clavi-pectoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triangle clavi-pectoral (ou espace delto-pectoral ou fossette de Mohrenheim ou fossette sous claviculaire) est un espace anatomique correspondant à l'élargissement du sillon delto-pectoral vers sa partie supérieure sous-claviculaire.
 Il est délimité en haut par la clavicule, latéralement par le bord médial du muscle deltoïde et médialement par le bord latéral du muscle grand pectoral.
@@ -514,7 +526,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus coracoïde de l'omoplate n'est pas sous-cutané ; Il est recouvert par le bord antérieur du deltoïde. Cependant, la pointe de l'apophyse coracoïde peut être ressentie à la palpation profonde sur la face latérale du triangle clavi-pectoral.
 Le processus coracoïde est utilisé comme repère osseux lors de la réalisation d'un bloc du plexus brachial.
